--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>Sdc1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>Sdc1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H2">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I2">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J2">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>0.397205423317</v>
+        <v>0.393585088056</v>
       </c>
       <c r="R2">
-        <v>1.588821693268</v>
+        <v>1.574340352224</v>
       </c>
       <c r="S2">
-        <v>0.009269338904510373</v>
+        <v>0.007788722597369051</v>
       </c>
       <c r="T2">
-        <v>0.005762952037326142</v>
+        <v>0.004964216351850177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H3">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I3">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J3">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>1.101905972273</v>
+        <v>1.978997883001</v>
       </c>
       <c r="R3">
-        <v>6.611435833638</v>
+        <v>11.873987298006</v>
       </c>
       <c r="S3">
-        <v>0.02571450261833648</v>
+        <v>0.03916272744886688</v>
       </c>
       <c r="T3">
-        <v>0.02398090847359062</v>
+        <v>0.03744110466529913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H4">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I4">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J4">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>0.1497532884985</v>
+        <v>0.5392534669366666</v>
       </c>
       <c r="R4">
-        <v>0.8985197309909999</v>
+        <v>3.23552080162</v>
       </c>
       <c r="S4">
-        <v>0.003494700479076015</v>
+        <v>0.0106713790514381</v>
       </c>
       <c r="T4">
-        <v>0.003259098321877508</v>
+        <v>0.0102022572485445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H5">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I5">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J5">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>1.3745661529845</v>
+        <v>2.31550676648725</v>
       </c>
       <c r="R5">
-        <v>5.498264611938001</v>
+        <v>9.262027065948999</v>
       </c>
       <c r="S5">
-        <v>0.0320774057219099</v>
+        <v>0.04582195927589146</v>
       </c>
       <c r="T5">
-        <v>0.01994322923798444</v>
+        <v>0.02920506112106628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H6">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I6">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J6">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>0.09484446745983333</v>
+        <v>0.1758112854795</v>
       </c>
       <c r="R6">
-        <v>0.569066804759</v>
+        <v>1.054867712877</v>
       </c>
       <c r="S6">
-        <v>0.002213327060747044</v>
+        <v>0.003479159586177843</v>
       </c>
       <c r="T6">
-        <v>0.002064111231459234</v>
+        <v>0.003326213129140279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H7">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I7">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J7">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>0.088291275854</v>
+        <v>0.6816439460395001</v>
       </c>
       <c r="R7">
-        <v>0.529747655124</v>
+        <v>4.089863676237001</v>
       </c>
       <c r="S7">
-        <v>0.002060399254793641</v>
+        <v>0.01348916858639286</v>
       </c>
       <c r="T7">
-        <v>0.001921493356555424</v>
+        <v>0.01289617464846957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
         <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J8">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>2.653210166088667</v>
+        <v>1.463842413008</v>
       </c>
       <c r="R8">
-        <v>15.919260996532</v>
+        <v>8.783054478048001</v>
       </c>
       <c r="S8">
-        <v>0.06191633540396205</v>
+        <v>0.02896822777889499</v>
       </c>
       <c r="T8">
-        <v>0.05774212297164034</v>
+        <v>0.02769476282401302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
         <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J9">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
-        <v>7.360393277851333</v>
+        <v>7.360393277851334</v>
       </c>
       <c r="R9">
-        <v>66.243539500662</v>
+        <v>66.24353950066201</v>
       </c>
       <c r="S9">
-        <v>0.1717649753951987</v>
+        <v>0.1456560809554024</v>
       </c>
       <c r="T9">
-        <v>0.2402776488655611</v>
+        <v>0.2088793960779012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H10">
         <v>2.524493</v>
       </c>
       <c r="I10">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J10">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>1.000305947817667</v>
+        <v>2.005619928748889</v>
       </c>
       <c r="R10">
-        <v>9.002753530358998</v>
+        <v>18.05057935874</v>
       </c>
       <c r="S10">
-        <v>0.02334352527487904</v>
+        <v>0.0396895556636474</v>
       </c>
       <c r="T10">
-        <v>0.03265466289839741</v>
+        <v>0.05691715967671325</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H11">
         <v>2.524493</v>
       </c>
       <c r="I11">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J11">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>9.181679496227</v>
+        <v>8.611954861228833</v>
       </c>
       <c r="R11">
-        <v>55.090076977362</v>
+        <v>51.671729167373</v>
       </c>
       <c r="S11">
-        <v>0.21426721279986</v>
+        <v>0.1704234471038485</v>
       </c>
       <c r="T11">
-        <v>0.1998219640997752</v>
+        <v>0.1629315049307395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H12">
         <v>2.524493</v>
       </c>
       <c r="I12">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J12">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>0.6335318968212221</v>
+        <v>0.653886603381</v>
       </c>
       <c r="R12">
-        <v>5.701787071390999</v>
+        <v>5.884979430429</v>
       </c>
       <c r="S12">
-        <v>0.01478434460791984</v>
+        <v>0.01293987378695063</v>
       </c>
       <c r="T12">
-        <v>0.02068144308370164</v>
+        <v>0.01855654088873974</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H13">
         <v>2.524493</v>
       </c>
       <c r="I13">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J13">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>0.5897585906973333</v>
+        <v>2.535206106794334</v>
       </c>
       <c r="R13">
-        <v>5.307827316276</v>
+        <v>22.81685496114901</v>
       </c>
       <c r="S13">
-        <v>0.01376283385903616</v>
+        <v>0.05016962708243546</v>
       </c>
       <c r="T13">
-        <v>0.01925247771711313</v>
+        <v>0.07194619914043451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H14">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I14">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J14">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>1.573446274075</v>
+        <v>0.02347836944</v>
       </c>
       <c r="R14">
-        <v>6.293785096300001</v>
+        <v>0.14087021664</v>
       </c>
       <c r="S14">
-        <v>0.03671854890762785</v>
+        <v>0.0004646174668606559</v>
       </c>
       <c r="T14">
-        <v>0.02282873011924372</v>
+        <v>0.0004441925355880516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H15">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I15">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J15">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>4.364970226175001</v>
+        <v>0.1180523470733333</v>
       </c>
       <c r="R15">
-        <v>26.18982135705</v>
+        <v>1.06247112366</v>
       </c>
       <c r="S15">
-        <v>0.1018626281500263</v>
+        <v>0.002336158079219964</v>
       </c>
       <c r="T15">
-        <v>0.09499535724262059</v>
+        <v>0.003350188234704639</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H16">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I16">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J16">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>0.5932163560375</v>
+        <v>0.03216786535555555</v>
       </c>
       <c r="R16">
-        <v>3.559298136225</v>
+        <v>0.2895107882</v>
       </c>
       <c r="S16">
-        <v>0.01384352560418561</v>
+        <v>0.0006365753871454913</v>
       </c>
       <c r="T16">
-        <v>0.01291023689600961</v>
+        <v>0.0009128865856669514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H17">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I17">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J17">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>5.445056549887501</v>
+        <v>0.1381259731483333</v>
       </c>
       <c r="R17">
-        <v>21.78022619955</v>
+        <v>0.8287558388899999</v>
       </c>
       <c r="S17">
-        <v>0.1270679390368009</v>
+        <v>0.00273339849753389</v>
       </c>
       <c r="T17">
-        <v>0.07900093476943019</v>
+        <v>0.002613236255614747</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H18">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I18">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J18">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>0.3757065366708333</v>
+        <v>0.01048759833</v>
       </c>
       <c r="R18">
-        <v>2.254239220025</v>
+        <v>0.09438838497</v>
       </c>
       <c r="S18">
-        <v>0.008767632596653819</v>
+        <v>0.0002075408763793882</v>
       </c>
       <c r="T18">
-        <v>0.008176545272957985</v>
+        <v>0.0002976258363897511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H19">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I19">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J19">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>0.34974743765</v>
+        <v>0.04066182606333334</v>
       </c>
       <c r="R19">
-        <v>2.0984846259</v>
+        <v>0.36595643457</v>
       </c>
       <c r="S19">
-        <v>0.008161841053148605</v>
+        <v>0.0008046638277736604</v>
       </c>
       <c r="T19">
-        <v>0.007611594366673897</v>
+        <v>0.001153935306295638</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H20">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I20">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J20">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>0.6512064655560001</v>
+        <v>1.382805217584</v>
       </c>
       <c r="R20">
-        <v>3.907238793336</v>
+        <v>5.531220870336</v>
       </c>
       <c r="S20">
-        <v>0.01519680515849739</v>
+        <v>0.02736456886401121</v>
       </c>
       <c r="T20">
-        <v>0.01417228242777855</v>
+        <v>0.01744106796946925</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H21">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I21">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J21">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>1.806542034564</v>
+        <v>6.952927540314001</v>
       </c>
       <c r="R21">
-        <v>16.258878311076</v>
+        <v>41.717565241884</v>
       </c>
       <c r="S21">
-        <v>0.04215816144648476</v>
+        <v>0.1375926718123225</v>
       </c>
       <c r="T21">
-        <v>0.05897397819054592</v>
+        <v>0.1315439950710679</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,55 +1774,55 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H22">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I22">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J22">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>0.245516057898</v>
+        <v>1.89459034478</v>
       </c>
       <c r="R22">
-        <v>2.209644521082</v>
+        <v>11.36754206868</v>
       </c>
       <c r="S22">
-        <v>0.005729457387946372</v>
+        <v>0.03749237224415787</v>
       </c>
       <c r="T22">
-        <v>0.008014791998681563</v>
+        <v>0.03584417952443929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H23">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I23">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J23">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>2.253560282946</v>
+        <v>8.135203632496498</v>
       </c>
       <c r="R23">
-        <v>13.521361697676</v>
+        <v>32.54081452998599</v>
       </c>
       <c r="S23">
-        <v>0.05258995164247731</v>
+        <v>0.1609889355300191</v>
       </c>
       <c r="T23">
-        <v>0.04904449585073839</v>
+        <v>0.1026078276937261</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H24">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I24">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J24">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>0.155494680602</v>
+        <v>0.617687941563</v>
       </c>
       <c r="R24">
-        <v>1.399452125418</v>
+        <v>3.706127649378</v>
       </c>
       <c r="S24">
-        <v>0.003628683818846653</v>
+        <v>0.01222353227947903</v>
       </c>
       <c r="T24">
-        <v>0.005076073363984258</v>
+        <v>0.01168617666001908</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.206538</v>
+        <v>0.794913</v>
       </c>
       <c r="H25">
-        <v>0.619614</v>
+        <v>1.589826</v>
       </c>
       <c r="I25">
-        <v>0.1226810226883485</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J25">
-        <v>0.1400069685560854</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>0.144750918072</v>
+        <v>2.394859037403001</v>
       </c>
       <c r="R25">
-        <v>1.302758262648</v>
+        <v>14.369154224418</v>
       </c>
       <c r="S25">
-        <v>0.003377963234096048</v>
+        <v>0.04739227493161599</v>
       </c>
       <c r="T25">
-        <v>0.004725346724356667</v>
+        <v>0.04530887508685524</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H26">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I26">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J26">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>0.03305880657000001</v>
+        <v>0.004911960176</v>
       </c>
       <c r="R26">
-        <v>0.1983528394200001</v>
+        <v>0.029471761056</v>
       </c>
       <c r="S26">
-        <v>0.0007714730562261915</v>
+        <v>9.7203619703053E-05</v>
       </c>
       <c r="T26">
-        <v>0.0007194626715435325</v>
+        <v>9.293047589445258E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H27">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I27">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J27">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>0.09170996733000002</v>
+        <v>0.02469798547933334</v>
       </c>
       <c r="R27">
-        <v>0.8253897059700002</v>
+        <v>0.222281869314</v>
       </c>
       <c r="S27">
-        <v>0.002140179157183631</v>
+        <v>0.000488752657176397</v>
       </c>
       <c r="T27">
-        <v>0.002993842108124771</v>
+        <v>0.0007009000873347246</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H28">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I28">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J28">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>0.012463739685</v>
+        <v>0.006729908308888888</v>
       </c>
       <c r="R28">
-        <v>0.112173657165</v>
+        <v>0.06056917477999999</v>
       </c>
       <c r="S28">
-        <v>0.0002908586347917464</v>
+        <v>0.000133179306112854</v>
       </c>
       <c r="T28">
-        <v>0.0004068747354296845</v>
+        <v>0.00019098696634193</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H29">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I29">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J29">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>0.114403061745</v>
+        <v>0.02889763197183333</v>
       </c>
       <c r="R29">
-        <v>0.6864183704700001</v>
+        <v>0.173385791831</v>
       </c>
       <c r="S29">
-        <v>0.002669753957970808</v>
+        <v>0.0005718601796149564</v>
       </c>
       <c r="T29">
-        <v>0.002489767205042133</v>
+        <v>0.0005467207784962343</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H30">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I30">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J30">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>0.007893761565000001</v>
+        <v>0.002194133007</v>
       </c>
       <c r="R30">
-        <v>0.07104385408500001</v>
+        <v>0.019747197063</v>
       </c>
       <c r="S30">
-        <v>0.0001842118633888541</v>
+        <v>4.342007319856254E-05</v>
       </c>
       <c r="T30">
-        <v>0.000257689283431499</v>
+        <v>6.226694146845103E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.010485</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H31">
-        <v>0.031455</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I31">
-        <v>0.006227960582979085</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J31">
-        <v>0.007107520481996315</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N31">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O31">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P31">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q31">
-        <v>0.007348349340000001</v>
+        <v>0.008506948100333334</v>
       </c>
       <c r="R31">
-        <v>0.06613514406000001</v>
+        <v>0.07656253290300001</v>
       </c>
       <c r="S31">
-        <v>0.0001714839134178556</v>
+        <v>0.0001683454503598587</v>
       </c>
       <c r="T31">
-        <v>0.000239884478424695</v>
+        <v>0.0002414172877162348</v>
       </c>
     </row>
   </sheetData>
